--- a/AAII_Financials/Quarterly/WDAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WDAY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>WDAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1018400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>976300</v>
+      </c>
+      <c r="F8" s="3">
         <v>938100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>887800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>825100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>788600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>743200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>671700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>618600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>582500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>555400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>525300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>479900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>439600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>413500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>305600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>284800</v>
+      </c>
+      <c r="F9" s="3">
         <v>270900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>266300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>243200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>233700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>223000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>200200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>178000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>171000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>163600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>158200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>136700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>130200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>126900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>712800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>691500</v>
+      </c>
+      <c r="F10" s="3">
         <v>667200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>621500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>581900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>554900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>520200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>471500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>440600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>411500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>391800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>367100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>343200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>309400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>286600</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>443500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>422200</v>
+      </c>
+      <c r="F12" s="3">
         <v>401700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>378100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>347800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>337400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>318000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>292800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>263600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>253500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>239600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>221100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>196400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>191600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>185300</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -995,26 +1034,32 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3">
         <v>600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1162800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1122400</v>
+      </c>
+      <c r="F17" s="3">
         <v>1048400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1010200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>948400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>908900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>925900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>760700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>689900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>664400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>635500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>606900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>540100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>528500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>519500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-144400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-146100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-110300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-122400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-123300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-120300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-182700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-89000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-71300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-81900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-80100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-81600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-60200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-88900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-106000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>33300</v>
+      </c>
+      <c r="F20" s="3">
         <v>12100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>14300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>18700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>27200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>39000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>19100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>14500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>11900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>8600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>7800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>5300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>11600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-25900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-40400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-43500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-33500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-86200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-27600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-18100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-35400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-36500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-39800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-21500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-44700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-64200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>16400</v>
+      </c>
+      <c r="F22" s="3">
         <v>16200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>14500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>11600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>12000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>12300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>17500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>18300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>18400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>12300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>6800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>7000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>13900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-155400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-129200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-114400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-122600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-116200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-105100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-156100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-87400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-75100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-88400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-83800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-80700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-61900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-91200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-109000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-1900</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-2800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>10700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>2200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-3000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-158400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-115700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-120700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-116300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-104400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-153300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-86200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-74400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-99200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-85500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-82500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-64000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-88300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-158400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-115700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-120700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-116300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-104400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-153300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-86200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-74400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-99200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-85500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-82500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-64000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-88300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,40 +1689,46 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
-        <v>10100</v>
+      <c r="K29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
+      <c r="M29" s="3">
+        <v>10100</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-12100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-14300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-18700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-27200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-39000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-19100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-14500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-11900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-8600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-7800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-5300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-11600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-158400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-115700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-120700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-116300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-104400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-153300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-86200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-74400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-89100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-85500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-82500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-64000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-88300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-158400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-115700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-120700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-116300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-104400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-153300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-86200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-74400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-89100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-85500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-82500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-64000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-88300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,140 +2138,160 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1214200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>731100</v>
+      </c>
+      <c r="F41" s="3">
         <v>912700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>619500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>781800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>638600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>540400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1693700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1036000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1134400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1337000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>748600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>498900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>539900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>386600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1384800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1213400</v>
+      </c>
+      <c r="F42" s="3">
         <v>1191800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>1307000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>1110100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>1139900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>1041700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>1291400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>2329600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>2133500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1874100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1349200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1616800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1456800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1527200</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>584200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>877600</v>
+      </c>
+      <c r="F43" s="3">
         <v>615500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>613400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>542800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>704700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>486000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>457500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>354200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>528200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>349300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>370600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>297900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>819600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>268900</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,228 +2334,264 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>267100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>272500</v>
+      </c>
+      <c r="F45" s="3">
         <v>235300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>249100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>230400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>217500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>203100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>171400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>160900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>160900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>133300</v>
-      </c>
-      <c r="M45" s="3">
-        <v>117900</v>
-      </c>
-      <c r="N45" s="3">
-        <v>120200</v>
       </c>
       <c r="O45" s="3">
         <v>117900</v>
       </c>
       <c r="P45" s="3">
+        <v>120200</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>117900</v>
+      </c>
+      <c r="R45" s="3">
         <v>111900</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3450400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3094600</v>
+      </c>
+      <c r="F46" s="3">
         <v>2955400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2789000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2665100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2700600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2271300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3614000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3880800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3957000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3693800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2586200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2533800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2524400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2294600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>119600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>75000</v>
+      </c>
+      <c r="F47" s="3">
         <v>70800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>61300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>52900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>50500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>40200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>32400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>31600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>29200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>24300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>19200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>14500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>14000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1247300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1227100</v>
+      </c>
+      <c r="F48" s="3">
         <v>1218200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1214300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1165900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>796900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>735400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>678500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>611300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>546600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>487200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>438800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>404100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>365900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>334300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2128900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2145600</v>
+      </c>
+      <c r="F49" s="3">
         <v>1669300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1686000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1692500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1711800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1721200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>222400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>199300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>204800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>192700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>197700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>202100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>209200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>281300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>274100</v>
+      </c>
+      <c r="F52" s="3">
         <v>242000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>241500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>247700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>260900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>232200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>217700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>204800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>209800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>166700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>165300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>154300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>154700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>65300</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7227500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6816400</v>
+      </c>
+      <c r="F54" s="3">
         <v>6155600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5992200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5824200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5520700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5000300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4765100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4927800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4947400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4564700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3407100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3308700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3268300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2922600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>57600</v>
+      </c>
+      <c r="F57" s="3">
         <v>35600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>32500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>35100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>29100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>28800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>32900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>30200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>21000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>35800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>39900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>28200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>26800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>28400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>266100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>244300</v>
+      </c>
+      <c r="F58" s="3">
         <v>241300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1233200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>235400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>232500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>229700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>226900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>570300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>341500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>336900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>332400</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2469400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2667500</v>
+      </c>
+      <c r="F59" s="3">
         <v>2214500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2168500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2172500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2169100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1797400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1654200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1596200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1696400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1376800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1304200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1261300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1258400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1069700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2771000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2969400</v>
+      </c>
+      <c r="F60" s="3">
         <v>2491400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3434300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2443100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2430700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2055900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1913900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2196700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2058900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1749500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1676600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1289400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1285200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1098100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1508800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1018000</v>
+      </c>
+      <c r="F61" s="3">
         <v>1006400</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>983500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>972300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>961100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>950100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>939200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1149800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1136500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>216000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>541400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>534400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>527500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>345800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>342400</v>
+      </c>
+      <c r="F62" s="3">
         <v>338700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>347600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>352800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>159300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>150100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>125800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>134600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>158300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>138400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>144100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>157000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>172000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>159500</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4625500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4329800</v>
+      </c>
+      <c r="F66" s="3">
         <v>3836500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3781900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3779400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3562300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3167200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2989800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3270500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3367100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3024400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2036700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1987900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1991700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1785100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2785900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2627400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2499400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-2383700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2263000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2146300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2041800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1888000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1801800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1727900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1638800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1553200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1470700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1406900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1415000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2602000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2486600</v>
+      </c>
+      <c r="F76" s="3">
         <v>2319200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2210300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2044700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1958400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1833100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1775200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1657300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1580400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1540300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1370400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1320900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1276600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1137500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-158400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-115700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-120700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-116300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-104400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-153300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-86200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-74400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-89100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-85500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-82500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-64000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-88300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>75100</v>
+      </c>
+      <c r="F83" s="3">
         <v>72200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>67800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>61200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>59600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>57600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>42200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>38700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>34600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>35000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>34000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>33400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>32600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>263700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>297100</v>
+      </c>
+      <c r="F89" s="3">
         <v>258000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>100300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>209200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>250500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>114300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>57600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>184200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>126500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>144000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>15100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>180000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>109700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-21800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-34100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-39600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-55100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-37300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-49500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-39200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-44700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-27600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-23000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-60100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-107600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-174400</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-277300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-541400</v>
+      </c>
+      <c r="F94" s="3">
         <v>32600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-320700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-67400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-202400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1268100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>912300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-284600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-362000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-595500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>201300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-222900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>18400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-99100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>499300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>62200</v>
+      </c>
+      <c r="F100" s="3">
         <v>1600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>58000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>3400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>49400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>2700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-311400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>32500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1039300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>32200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>25400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>700</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
       </c>
       <c r="P101" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>485400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-182100</v>
+      </c>
+      <c r="F102" s="3">
         <v>292200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-162400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>144800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>97700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1151300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>658400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-98200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-202400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>587600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>249400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-40800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>153500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-22800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WDAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WDAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>WDAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,257 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="F7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1106000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1062000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1018400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>976300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>938100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>887800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>825100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>788600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>743200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>671700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>618600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>582500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>555400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>525300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>479900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>439600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>413500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>295200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>284300</v>
+      </c>
+      <c r="F9" s="3">
         <v>305600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>284800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>270900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>266300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>243200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>233700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>223000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>200200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>178000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>171000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>163600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>158200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>136700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>130200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>126900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>810800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>777700</v>
+      </c>
+      <c r="F10" s="3">
         <v>712800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>691500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>667200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>621500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>581900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>554900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>520200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>471500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>440600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>411500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>391800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>367100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>343200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>309400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>286600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +934,66 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>420000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>418700</v>
+      </c>
+      <c r="F12" s="3">
         <v>443500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>422200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>401700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>378100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>347800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>337400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>318000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>292800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>263600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>253500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>239600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>221100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>196400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>191600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>185300</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,19 +1042,25 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
+      <c r="E14" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>10000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -1040,26 +1080,32 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
         <v>600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1120000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1078700</v>
+      </c>
+      <c r="F17" s="3">
         <v>1162800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1122400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1048400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1010200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>948400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>908900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>925900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>760700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>689900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>664400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>635500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>606900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>540100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>528500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>519500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-144400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-146100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-110300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-122400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-123300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-120300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-182700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-89000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-71300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-81900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-80100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-81600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-60200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-88900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-106000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1311,290 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F20" s="3">
         <v>6600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>33300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>12100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>14300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>18700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>27200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>39000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>19100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>14500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>11900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>8600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>7800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>5300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>11600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>64300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-66400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-37700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-25900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-40400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-43500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-33500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-86200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-27600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-18100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-35400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-36500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-39800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-21500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-44700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-64200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>19300</v>
+      </c>
+      <c r="F22" s="3">
         <v>17500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>16400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>16200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>14500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>11600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>12000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>12300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>17500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>18300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>18400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>12300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>6800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>7000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>13900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-155400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-129200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-114400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-122600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-116200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-105100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-156100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-87400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-75100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-88400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-83800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-80700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-61900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-91200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-109000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F24" s="3">
         <v>2900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-1900</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-2800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>10700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>2200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-3000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-158400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-128000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-115700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-120700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-116300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-104400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-153300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-86200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-74400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-99200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-85500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-82500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-64000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-88300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-158400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-128000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-115700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-120700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-116300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-104400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-153300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-86200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-74400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-99200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-85500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-82500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-64000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-88300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,46 +1811,52 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
-        <v>10100</v>
+      <c r="M29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
+      <c r="O29" s="3">
+        <v>10100</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1979,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-6600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-33300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-12100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-14300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-18700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-27200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-39000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-19100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-14500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-11900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-8600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-7800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-11600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-158400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-128000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-115700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-120700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-116300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-104400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-153300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-86200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-74400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-89100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-85500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-82500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-64000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-88300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-158400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-128000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-115700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-120700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-116300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-104400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-153300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-86200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-74400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-89100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-85500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-82500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-64000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-88300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="F38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,158 +2312,178 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1067000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1239700</v>
+      </c>
+      <c r="F41" s="3">
         <v>1214200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>731100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>912700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>619500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>781800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>638600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>540400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1693700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1036000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1134400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1337000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>748600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>498900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>539900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>386600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1880800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1513800</v>
+      </c>
+      <c r="F42" s="3">
         <v>1384800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>1213400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>1191800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>1307000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>1110100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>1139900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1041700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1291400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>2329600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>2133500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1874100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1349200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1616800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>1456800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1527200</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>742700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>694300</v>
+      </c>
+      <c r="F43" s="3">
         <v>584200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>877600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>615500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>613400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>542800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>704700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>486000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>457500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>354200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>528200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>349300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>370600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>297900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>819600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>268900</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,258 +2532,294 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>267700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>266400</v>
+      </c>
+      <c r="F45" s="3">
         <v>267100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>272500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>235300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>249100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>230400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>217500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>203100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>171400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>160900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>160900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>133300</v>
-      </c>
-      <c r="O45" s="3">
-        <v>117900</v>
-      </c>
-      <c r="P45" s="3">
-        <v>120200</v>
       </c>
       <c r="Q45" s="3">
         <v>117900</v>
       </c>
       <c r="R45" s="3">
+        <v>120200</v>
+      </c>
+      <c r="S45" s="3">
+        <v>117900</v>
+      </c>
+      <c r="T45" s="3">
         <v>111900</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3958200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3714200</v>
+      </c>
+      <c r="F46" s="3">
         <v>3450400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3094600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2955400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2789000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2665100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2700600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2271300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3614000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3880800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3957000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3693800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2586200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2533800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2524400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2294600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>124300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>126500</v>
+      </c>
+      <c r="F47" s="3">
         <v>119600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>75000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>70800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>61300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>52900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>50500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>40200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>32400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>31600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>29200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>24300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>19200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>14500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>14000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1392200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1282100</v>
+      </c>
+      <c r="F48" s="3">
         <v>1247300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1227100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1218200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1214300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1165900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>796900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>735400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>678500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>611300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>546600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>487200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>438800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>404100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>365900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>334300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2097800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2112400</v>
+      </c>
+      <c r="F49" s="3">
         <v>2128900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2145600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1669300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1686000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1692500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1711800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1721200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>222400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>199300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>204800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>192700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>197700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>202100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>209200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2924,70 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>272500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>266300</v>
+      </c>
+      <c r="F52" s="3">
         <v>281300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>274100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>242000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>241500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>247700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>260900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>232200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>217700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>204800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>209800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>166700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>165300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>154300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>154700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>65300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7845000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7501500</v>
+      </c>
+      <c r="F54" s="3">
         <v>7227500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>6816400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6155600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5992200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5824200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5520700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5000300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4765100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4927800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4947400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4564700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3407100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3308700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3268300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2922600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3140,346 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>57800</v>
+      </c>
+      <c r="F57" s="3">
         <v>35400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>57600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>35600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>32500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>35100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>29100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>28800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>32900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>30200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>21000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>35800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>39900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>28200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>26800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>28400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1091100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>37500</v>
+      </c>
+      <c r="F58" s="3">
         <v>266100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>244300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>241300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1233200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>235400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>232500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>229700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>226900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>570300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>341500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>336900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>332400</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2479200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2457900</v>
+      </c>
+      <c r="F59" s="3">
         <v>2469400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2667500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2214500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2168500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2172500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2169100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1797400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1654200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1596200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1696400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1376800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1304200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1261300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1258400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1069700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3625200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2553100</v>
+      </c>
+      <c r="F60" s="3">
         <v>2771000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2969400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2491400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3434300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2443100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2430700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2055900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1913900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2196700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2058900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1749500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1676600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1289400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1285200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1098100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>701200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1752000</v>
+      </c>
+      <c r="F61" s="3">
         <v>1508800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1018000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1006400</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>983500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>972300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>961100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>950100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>939200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1149800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1136500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>216000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>541400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>534400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>527500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>440600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>357900</v>
+      </c>
+      <c r="F62" s="3">
         <v>345800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>342400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>338700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>347600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>352800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>159300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>150100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>125800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>134600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>158300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>138400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>144100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>157000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>172000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>159500</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4767000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4663000</v>
+      </c>
+      <c r="F66" s="3">
         <v>4625500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4329800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3836500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3781900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3779400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3562300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3167200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2989800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3270500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3367100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3024400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2036700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1987900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1991700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1785100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2838300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2813900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2785900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-2627400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2499400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2383700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2263000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2146300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2041800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1888000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1801800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1727900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1638800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1553200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1470700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-1406900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-1415000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3078100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2838500</v>
+      </c>
+      <c r="F76" s="3">
         <v>2602000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2486600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2319200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2210300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2044700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1958400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1833100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1775200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1657300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1580400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1540300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1370400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1320900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1276600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1137500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="F80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-158400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-128000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-115700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-120700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-116300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-104400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-153300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-86200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-74400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-89100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-85500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-82500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-64000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-88300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4421,66 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>73900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>73200</v>
+      </c>
+      <c r="F83" s="3">
         <v>71500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>75100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>72200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>67800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>61200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>59600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>57600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>42200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>38700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>34600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>35000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>34000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>33400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>32600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4753,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>293800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>157200</v>
+      </c>
+      <c r="F89" s="3">
         <v>263700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>297100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>258000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>100300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>209200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>250500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>114300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>57600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>184200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>126500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>144000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>15100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>180000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>109700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4835,66 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-3700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-21800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-34100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-39600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-55100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-37300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-49500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-39200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-44700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-27600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-23000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-60100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-107600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-174400</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4999,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-462700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-202600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-277300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-541400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>32600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-320700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-67400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-202400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1268100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>912300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-284600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-362000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-595500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>201300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-222900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>18400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-99100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5301,178 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>70800</v>
+      </c>
+      <c r="F100" s="3">
         <v>499300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>62200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>58000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>3400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>49400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-311400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>2600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>32500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1039300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>32200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>2200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>25400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>800</v>
+      </c>
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>700</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
       </c>
       <c r="R101" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-174700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>26100</v>
+      </c>
+      <c r="F102" s="3">
         <v>485400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-182100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>292200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-162400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>144800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>97700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1151300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>658400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-98200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-202400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>587600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>249400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-40800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>153500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-22800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WDAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WDAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>WDAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
         <v>44135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1131700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1106000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1062000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1018400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>976300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>938100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>887800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>825100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>788600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>743200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>671700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>618600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>582500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>555400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>525300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>479900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>439600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>413500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>313000</v>
+      </c>
+      <c r="E9" s="3">
         <v>295200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>284300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>305600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>284800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>270900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>266300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>243200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>233700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>223000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>200200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>178000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>171000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>163600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>158200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>136700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>130200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>126900</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>818700</v>
+      </c>
+      <c r="E10" s="3">
         <v>810800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>777700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>712800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>691500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>667200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>621500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>581900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>554900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>520200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>471500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>440600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>411500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>391800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>367100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>343200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>309400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>286600</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>439100</v>
+      </c>
+      <c r="E12" s="3">
         <v>420000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>418700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>443500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>422200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>401700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>378100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>347800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>337400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>318000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>292800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>263600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>253500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>239600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>221100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>196400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>191600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>185300</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,19 +1065,22 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>15000</v>
-      </c>
-      <c r="F14" s="3">
-        <v>10000</v>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -1086,26 +1106,29 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3">
         <v>600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1205000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1120000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1078700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1162800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1122400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1048400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1010200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>948400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>908900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>925900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>760700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>689900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>664400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>635500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>606900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>540100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>528500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>519500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-73300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-14000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-16700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-144400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-146100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-110300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-122400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-123300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-120300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-182700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-89000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-71300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-81900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-80100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-81600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-60200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-88900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-106000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1346,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E20" s="3">
         <v>7500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>33300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>12100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>14300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>18700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>27200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>39000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>19100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>14500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>11900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>8600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>7800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>11600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E21" s="3">
         <v>67300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>64300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-66400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-37700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-25900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-40400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-43500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-33500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-86200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-27600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-18100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-35400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-36500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-39800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-21500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-44700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-64200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E22" s="3">
         <v>16400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>19300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>17500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>16400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>14500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>11600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>18300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>18400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>12300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>6800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>13900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-68600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-22900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-28200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-155400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-129200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-114400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-122600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-116200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-105100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-156100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-87400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-75100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-88400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-83800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-80700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-61900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-91200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-109000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1900</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-3000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-71700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-24300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-28000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-158400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-128000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-115700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-120700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-116300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-104400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-153300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-86200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-74400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-99200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-85500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-82500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-64000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-88300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-71700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-24300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-28000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-158400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-128000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-115700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-120700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-116300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-104400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-153300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-86200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-74400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-99200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-85500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-82500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-64000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-88300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1831,11 +1892,11 @@
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -1843,11 +1904,11 @@
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
@@ -1855,11 +1916,11 @@
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="3">
         <v>10100</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-33300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-12100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-14300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-18700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-27200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-39000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-19100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-14500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-11900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-7800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-11600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-71700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-24300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-28000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-158400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-128000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-115700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-120700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-116300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-104400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-153300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-86200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-74400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-89100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-85500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-82500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-64000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-88300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-71700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-24300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-28000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-158400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-128000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-115700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-120700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-116300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-104400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-153300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-86200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-74400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-89100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-85500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-82500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-64000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-88300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
         <v>44135</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,176 +2400,186 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1384200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1067000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1239700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1214200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>731100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>912700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>619500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>781800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>638600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>540400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1693700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1036000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1134400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1337000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>748600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>498900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>539900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>386600</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2151500</v>
+      </c>
+      <c r="E42" s="3">
         <v>1880800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1513800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1384800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1213400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1191800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1307000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1110100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1139900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1041700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1291400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2329600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2133500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1874100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1349200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1616800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1456800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1527200</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1032500</v>
+      </c>
+      <c r="E43" s="3">
         <v>742700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>694300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>584200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>877600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>615500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>613400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>542800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>704700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>486000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>457500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>354200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>528200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>349300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>370600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>297900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>819600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>268900</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,288 +2634,306 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>233900</v>
+      </c>
+      <c r="E45" s="3">
         <v>267700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>266400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>267100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>272500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>235300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>249100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>230400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>217500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>203100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>171400</v>
-      </c>
-      <c r="N45" s="3">
-        <v>160900</v>
       </c>
       <c r="O45" s="3">
         <v>160900</v>
       </c>
       <c r="P45" s="3">
+        <v>160900</v>
+      </c>
+      <c r="Q45" s="3">
         <v>133300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>117900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>120200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>117900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>111900</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4802100</v>
+      </c>
+      <c r="E46" s="3">
         <v>3958200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3714200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3450400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3094600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2955400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2789000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2665100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2700600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2271300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3614000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3880800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3957000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3693800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2586200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2533800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2524400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2294600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>134100</v>
+      </c>
+      <c r="E47" s="3">
         <v>124300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>126500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>119600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>75000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>70800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>61300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>52900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>50500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>40200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>32400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>31600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>29200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>24300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>19200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>14500</v>
-      </c>
-      <c r="S47" s="3">
-        <v>14000</v>
       </c>
       <c r="T47" s="3">
         <v>14000</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1386500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1392200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1282100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1247300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1227100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1218200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1214300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1165900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>796900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>735400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>678500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>611300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>546600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>487200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>438800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>404100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>365900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>334300</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2086000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2097800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2112400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2128900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2145600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1669300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1686000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1692500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1711800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1721200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>222400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>199300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>204800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>192700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>197700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>202100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>209200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>309700</v>
+      </c>
+      <c r="E52" s="3">
         <v>272500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>266300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>281300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>274100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>242000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>241500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>247700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>260900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>232200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>217700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>204800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>209800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>166700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>165300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>154300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>154700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>65300</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8718400</v>
+      </c>
+      <c r="E54" s="3">
         <v>7845000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7501500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7227500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6816400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6155600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5992200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5824200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5520700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5000300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4765100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4927800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4947400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4564700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3407100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3308700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3268300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2922600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3272,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>75600</v>
+      </c>
+      <c r="E57" s="3">
         <v>54900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>57800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>35400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>57600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>35600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>32500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>35100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>29100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>28800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>32900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>30200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>21000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>35800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>39900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>28200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>26800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>28400</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1103100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1091100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>37500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>266100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>244300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>241300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1233200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>235400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>232500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>229700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>226900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>570300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>341500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>336900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>332400</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="S58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3" t="s">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3104000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2479200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2457900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2469400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2667500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2214500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2168500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2172500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2169100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1797400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1654200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1596200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1696400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1376800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1304200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1261300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1258400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1069700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4282600</v>
+      </c>
+      <c r="E60" s="3">
         <v>3625200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2553100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2771000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2969400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2491400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3434300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2443100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2430700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2055900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1913900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2196700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2058900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1749500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1676600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1289400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1285200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1098100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>691900</v>
+      </c>
+      <c r="E61" s="3">
         <v>701200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1752000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1508800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1018000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1006400</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>983500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>972300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>961100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>950100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>939200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1149800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1136500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>216000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>541400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>534400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>527500</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>466000</v>
+      </c>
+      <c r="E62" s="3">
         <v>440600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>357900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>345800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>342400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>338700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>347600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>352800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>159300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>150100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>125800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>134600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>158300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>138400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>144100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>157000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>172000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>159500</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5440600</v>
+      </c>
+      <c r="E66" s="3">
         <v>4767000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4663000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4625500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4329800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3836500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3781900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3779400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3562300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3167200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2989800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3270500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3367100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3024400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2036700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1987900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1991700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1785100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2910000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2838300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2813900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2785900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2627400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2499400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2383700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2263000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2146300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2041800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1888000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1801800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1727900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1638800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1553200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1470700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1406900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1415000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3277800</v>
+      </c>
+      <c r="E76" s="3">
         <v>3078100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2838500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2602000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2486600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2319200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2210300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2044700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1958400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1833100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1775200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1657300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1580400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1540300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1370400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1320900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1276600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1137500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
         <v>44135</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-71700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-24300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-28000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-158400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-128000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-115700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-120700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-116300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-104400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-153300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-86200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-74400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-89100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-85500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-82500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-64000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-88300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>75100</v>
+      </c>
+      <c r="E83" s="3">
         <v>73900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>73200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>71500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>75100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>72200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>67800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>61200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>59600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>57600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>42200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>38700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>34600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>35000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>34000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>33400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>32600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>553700</v>
+      </c>
+      <c r="E89" s="3">
         <v>293800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>157200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>263700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>297100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>258000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>100300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>209200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>250500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>114300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>57600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>184200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>126500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>144000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>15100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>180000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>109700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-21800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-34100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-39600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-55100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-37300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-49500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-39200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-44700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-27600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-23000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-60100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-107600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-174400</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-299000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-462700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-202600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-277300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-541400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>32600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-320700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-67400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-202400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1268100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>912300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-284600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-362000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-595500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>201300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-222900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>18400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-99100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5550,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>70800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>499300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>62200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>58000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>49400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-311400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>32500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1039300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>32200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>25400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-200</v>
       </c>
       <c r="M101" s="3">
         <v>-200</v>
       </c>
       <c r="N101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>316400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-174700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>26100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>485400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-182100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>292200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-162400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>144800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>97700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1151300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>658400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-98200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-202400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>587600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>249400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-40800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>153500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-22800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WDAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WDAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>WDAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,282 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1175000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1131700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1106000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1062000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1018400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>976300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>938100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>887800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>825100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>788600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>743200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>671700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>618600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>582500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>555400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>525300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>479900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>439600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>413500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>333100</v>
+      </c>
+      <c r="E9" s="3">
         <v>313000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>295200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>284300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>305600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>284800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>270900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>266300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>243200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>233700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>223000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>200200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>178000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>171000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>163600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>158200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>136700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>130200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>126900</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>841900</v>
+      </c>
+      <c r="E10" s="3">
         <v>818700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>810800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>777700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>712800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>691500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>667200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>621500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>581900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>554900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>520200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>471500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>440600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>411500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>391800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>367100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>343200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>309400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>286600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>441600</v>
+      </c>
+      <c r="E12" s="3">
         <v>439100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>420000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>418700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>443500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>422200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>401700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>378100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>347800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>337400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>318000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>292800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>263600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>253500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>239600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>221100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>196400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>191600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>185300</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,31 +1084,34 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1109,26 +1128,29 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="3">
         <v>600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1213300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1205000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1120000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1078700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1162800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1122400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1048400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1010200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>948400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>908900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>925900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>760700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>689900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>664400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>635500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>606900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>540100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>528500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>519500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-73300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-14000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-16700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-144400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-146100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-110300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-122400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-123300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-120300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-182700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-89000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-71300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-81900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-80100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-81600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-60200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-88900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-106000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E20" s="3">
         <v>20300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>33300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>12100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>14300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>18700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>27200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>39000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>19100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>14500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>11900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>8600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>11600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E21" s="3">
         <v>22100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>67300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>64300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-66400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-37700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-25900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-40400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-43500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-33500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-86200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-27600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-18100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-35400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-36500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-39800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-21500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-44700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-64200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E22" s="3">
         <v>15600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>16400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>19300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>17500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>16200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>14500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>17500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>18300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>18400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>12300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>6800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>13900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-47400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-68600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-22900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-28200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-155400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-129200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-114400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-122600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-116200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-105100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-156100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-87400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-75100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-88400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-83800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-80700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-61900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-91200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-109000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E24" s="3">
         <v>3100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1900</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-3000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-71700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-24300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-28000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-158400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-128000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-115700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-120700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-116300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-104400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-153300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-86200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-74400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-99200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-85500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-82500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-64000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-88300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-71700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-24300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-28000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-158400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-128000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-115700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-120700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-116300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-104400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-153300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-86200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-74400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-99200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-85500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-82500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-64000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-88300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,40 +1935,43 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
@@ -1919,11 +1979,11 @@
       <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="3">
         <v>10100</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>10</v>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-20300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-33300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-12100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-14300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-18700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-27200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-39000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-19100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-14500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-8600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-11600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-71700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-24300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-28000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-158400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-128000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-115700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-120700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-116300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-104400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-153300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-86200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-74400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-89100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-85500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-82500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-64000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-88300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-71700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-24300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-28000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-158400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-128000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-115700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-120700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-116300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-104400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-153300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-86200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-74400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-89100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-85500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-82500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-64000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-88300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,185 +2486,195 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>959400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1384200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1067000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1239700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1214200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>731100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>912700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>619500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>781800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>638600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>540400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1693700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1036000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1134400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1337000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>748600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>498900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>539900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>386600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2035200</v>
+      </c>
+      <c r="E42" s="3">
         <v>2151500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1880800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1513800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1384800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1213400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1191800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1307000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1110100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1139900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1041700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1291400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2329600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2133500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1874100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1349200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1616800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1456800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1527200</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>647200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1032500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>742700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>694300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>584200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>877600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>615500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>613400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>542800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>704700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>486000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>457500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>354200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>528200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>349300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>370600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>297900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>819600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>268900</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,303 +2732,321 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>264100</v>
+      </c>
+      <c r="E45" s="3">
         <v>233900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>267700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>266400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>267100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>272500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>235300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>249100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>230400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>217500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>203100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>171400</v>
-      </c>
-      <c r="O45" s="3">
-        <v>160900</v>
       </c>
       <c r="P45" s="3">
         <v>160900</v>
       </c>
       <c r="Q45" s="3">
+        <v>160900</v>
+      </c>
+      <c r="R45" s="3">
         <v>133300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>117900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>120200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>117900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>111900</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3905800</v>
+      </c>
+      <c r="E46" s="3">
         <v>4802100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3958200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3714200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3450400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3094600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2955400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2789000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2665100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2700600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2271300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3614000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3880800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3957000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3693800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2586200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2533800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2524400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2294600</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>182200</v>
+      </c>
+      <c r="E47" s="3">
         <v>134100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>124300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>126500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>119600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>75000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>70800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>61300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>52900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>50500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>40200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>32400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>31600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>29200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>24300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>19200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>14500</v>
-      </c>
-      <c r="T47" s="3">
-        <v>14000</v>
       </c>
       <c r="U47" s="3">
         <v>14000</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1436600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1386500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1392200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1282100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1247300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1227100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1218200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1214300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1165900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>796900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>735400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>678500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>611300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>546600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>487200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>438800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>404100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>365900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>334300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2780400</v>
+      </c>
+      <c r="E49" s="3">
         <v>2086000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2097800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2112400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2128900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2145600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1669300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1686000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1692500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1711800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1721200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>222400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>199300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>204800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>192700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>197700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>202100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>209200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>319000</v>
+      </c>
+      <c r="E52" s="3">
         <v>309700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>272500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>266300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>281300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>274100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>242000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>241500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>247700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>260900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>232200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>217700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>204800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>209800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>166700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>165300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>154300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>154700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>65300</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8624000</v>
+      </c>
+      <c r="E54" s="3">
         <v>8718400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7845000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7501500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7227500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6816400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6155600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5992200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5824200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5520700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5000300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4765100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4927800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4947400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4564700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3407100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3308700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3268300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2922600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E57" s="3">
         <v>75600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>54900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>57800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>35400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>57600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>35600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>32500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>35100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>29100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>28800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>32900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>30200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>21000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>35800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>39900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>28200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>26800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>28400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1191700</v>
+      </c>
+      <c r="E58" s="3">
         <v>1103100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1091100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>37500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>266100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>244300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>241300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1233200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>235400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>232500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>229700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>226900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>570300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>341500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>336900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>332400</v>
       </c>
-      <c r="S58" s="3" t="s">
+      <c r="T58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3" t="s">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2970900</v>
+      </c>
+      <c r="E59" s="3">
         <v>3104000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2479200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2457900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2469400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2667500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2214500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2168500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2172500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2169100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1797400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1654200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1596200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1696400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1376800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1304200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1261300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1258400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1069700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4210800</v>
+      </c>
+      <c r="E60" s="3">
         <v>4282600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3625200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2553100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2771000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2969400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2491400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3434300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2443100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2430700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2055900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1913900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2196700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2058900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1749500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1676600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1289400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1285200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1098100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>673300</v>
+      </c>
+      <c r="E61" s="3">
         <v>691900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>701200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1752000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1508800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1018000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1006400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>983500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>972300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>961100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>950100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>939200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1149800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1136500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>216000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>541400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>534400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>527500</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>334500</v>
+      </c>
+      <c r="E62" s="3">
         <v>466000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>440600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>357900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>345800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>342400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>338700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>347600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>352800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>159300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>150100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>125800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>134600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>158300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>138400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>144100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>157000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>172000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>159500</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5218600</v>
+      </c>
+      <c r="E66" s="3">
         <v>5440600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4767000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4663000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4625500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4329800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3836500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3781900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3779400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3562300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3167200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2989800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3270500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3367100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3024400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2036700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1987900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1991700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1785100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2820500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2910000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2838300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2813900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2785900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2627400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2499400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2383700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2263000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2146300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2041800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1888000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1801800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1727900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1638800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1553200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1470700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1406900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1415000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3405400</v>
+      </c>
+      <c r="E76" s="3">
         <v>3277800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3078100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2838500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2602000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2486600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2319200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2210300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2044700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1958400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1833100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1775200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1657300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1580400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1540300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1370400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1320900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1276600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1137500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-71700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-24300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-28000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-158400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-128000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-115700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-120700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-116300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-104400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-153300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-86200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-74400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-89100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-85500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-82500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-64000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-88300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>82500</v>
+      </c>
+      <c r="E83" s="3">
         <v>75100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>73900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>73200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>71500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>75100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>72200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>67800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>61200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>59600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>57600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>42200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>38700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>34600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>35000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>34000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>33400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>32600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>452400</v>
+      </c>
+      <c r="E89" s="3">
         <v>553700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>293800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>157200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>263700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>297100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>258000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>100300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>209200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>250500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>114300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>57600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>184200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>126500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>144000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>15100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>180000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>109700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-69800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-21800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-34100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-39600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-55100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-37300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-49500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-39200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-44700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-27600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-23000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-60100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-107600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-174400</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-861700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-299000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-462700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-202600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-277300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-541400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>32600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-320700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-67400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-202400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1268100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>912300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-284600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-362000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-595500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>201300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-222900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>18400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-99100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E100" s="3">
         <v>60800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>70800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>499300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>62200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>58000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>49400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-311400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>32500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1039300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>32200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>25400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-200</v>
       </c>
       <c r="N101" s="3">
         <v>-200</v>
       </c>
       <c r="O101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P101" s="3">
         <v>-400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-420100</v>
+      </c>
+      <c r="E102" s="3">
         <v>316400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-174700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>26100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>485400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-182100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>292200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-162400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>144800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>97700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1151300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>658400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-98200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-202400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>587600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>249400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-40800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>153500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-22800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WDAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WDAY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,308 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1327300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1260400</v>
+      </c>
+      <c r="F8" s="3">
         <v>1175000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1131700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1106000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1062000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1018400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>976300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>938100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>887800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>825100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>788600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>743200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>671700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>618600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>582500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>555400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>525300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>479900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>439600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>413500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>359700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>345500</v>
+      </c>
+      <c r="F9" s="3">
         <v>333100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>313000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>295200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>284300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>305600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>284800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>270900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>266300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>243200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>233700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>223000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>200200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>178000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>171000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>163600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>158200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>136700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>130200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>126900</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>967600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>914900</v>
+      </c>
+      <c r="F10" s="3">
         <v>841900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>818700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>810800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>777700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>712800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>691500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>667200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>621500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>581900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>554900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>520200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>471500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>440600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>411500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>391800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>367100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>343200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>309400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>286600</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +989,78 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>455600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>444300</v>
+      </c>
+      <c r="F12" s="3">
         <v>441600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>439100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>420000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>418700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>443500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>422200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>401700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>378100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>347800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>337400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>318000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>292800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>263600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>253500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>239600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>221100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>196400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>191600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>185300</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1113,11 +1153,11 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1131,26 +1171,32 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3">
         <v>600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1303300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1261500</v>
+      </c>
+      <c r="F17" s="3">
         <v>1213300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1205000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1120000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1078700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1162800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1122400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1048400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1010200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>948400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>908900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>925900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>760700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>689900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>664400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>635500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>606900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>540100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>528500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>519500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-38300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-73300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-14000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-16700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-144400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-146100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-110300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-122400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-123300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-120300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-182700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-89000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-71300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-81900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-80100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-81600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-60200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-88900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-106000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1446,146 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>107100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-4800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>20300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>7500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>7800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>6600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>33300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>12100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>14300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>18700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>27200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>39000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>19100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>14500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>11900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>8600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>7800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>5300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>11600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>136800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>191400</v>
+      </c>
+      <c r="F21" s="3">
         <v>39300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>22100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>67300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>64300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-66400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-37700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-25900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-40400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-43500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-33500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-86200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-27600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-35400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-36500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-39800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-21500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-44700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-64200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1513,185 +1593,203 @@
         <v>4200</v>
       </c>
       <c r="E22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G22" s="3">
         <v>15600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>16400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>19300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>17500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>16400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>16200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>14500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>11600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>12000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>12300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>17500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>18300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>18400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>12300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>6800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>7000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>13900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>101900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-47400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-68600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-22900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-28200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-155400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-129200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-114400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-122600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-116200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-105100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-156100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-87400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-75100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-88400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-83800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-80700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-61900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-91200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-109000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F24" s="3">
         <v>-800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>3100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-1900</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-2800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-1200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>10700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>1700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>2200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-3000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>105700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-46500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-71700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-24300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-28000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-158400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-128000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-115700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-120700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-116300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-104400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-153300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-86200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-74400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-99200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-85500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-82500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-64000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-88300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>105700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-46500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-71700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-24300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-28000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-158400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-128000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-115700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-120700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-116300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-104400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-153300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-86200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-74400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-99200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-85500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-82500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-64000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-88300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,32 +2086,32 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="3">
-        <v>10100</v>
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>10</v>
+      <c r="S29" s="3">
+        <v>10100</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>10</v>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-107100</v>
+      </c>
+      <c r="F32" s="3">
         <v>4800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-20300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-7500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-7800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-6600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-33300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-12100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-14300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-18700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-27200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-39000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-19100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-14500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-11900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-8600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-7800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-5300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-11600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>105700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-46500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-71700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-24300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-28000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-158400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-128000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-115700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-120700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-116300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-104400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-153300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-86200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-74400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-89100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-85500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-82500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-64000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-88300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>105700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-46500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-71700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-24300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-28000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-158400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-128000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-115700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-120700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-116300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-104400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-153300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-86200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-74400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-89100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-85500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-82500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-64000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-88300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,194 +2659,214 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1297300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1087100</v>
+      </c>
+      <c r="F41" s="3">
         <v>959400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1384200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1067000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1239700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1214200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>731100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>912700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>619500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>781800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>638600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>540400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1693700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1036000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1134400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1337000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>748600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>498900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>539900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>386600</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2257700</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2220900</v>
+      </c>
+      <c r="F42" s="3">
         <v>2035200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>2151500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>1880800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>1513800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>1384800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>1213400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1191800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1307000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1110100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1139900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1041700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1291400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>2329600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>2133500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1874100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>1349200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>1616800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>1456800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>1527200</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>865000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>872800</v>
+      </c>
+      <c r="F43" s="3">
         <v>647200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1032500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>742700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>694300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>584200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>877600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>615500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>613400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>542800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>704700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>486000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>457500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>354200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>528200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>349300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>370600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>297900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>819600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>268900</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,318 +2927,354 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>273700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>280400</v>
+      </c>
+      <c r="F45" s="3">
         <v>264100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>233900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>267700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>266400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>267100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>272500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>235300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>249100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>230400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>217500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>203100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>171400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>160900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>160900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>133300</v>
-      </c>
-      <c r="S45" s="3">
-        <v>117900</v>
-      </c>
-      <c r="T45" s="3">
-        <v>120200</v>
       </c>
       <c r="U45" s="3">
         <v>117900</v>
       </c>
       <c r="V45" s="3">
+        <v>120200</v>
+      </c>
+      <c r="W45" s="3">
+        <v>117900</v>
+      </c>
+      <c r="X45" s="3">
         <v>111900</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4693700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4461100</v>
+      </c>
+      <c r="F46" s="3">
         <v>3905800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4802100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3958200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3714200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3450400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3094600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2955400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2789000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2665100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2700600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2271300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3614000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3880800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>3957000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3693800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2586200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2533800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2524400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>2294600</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>194600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>151900</v>
+      </c>
+      <c r="F47" s="3">
         <v>182200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>134100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>124300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>126500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>119600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>75000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>70800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>61300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>52900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>50500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>40200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>32400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>31600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>29200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>24300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>19200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>14500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>14000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1389900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1411300</v>
+      </c>
+      <c r="F48" s="3">
         <v>1436600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1386500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1392200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1282100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1247300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1227100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1218200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1214300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1165900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>796900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>735400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>678500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>611300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>546600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>487200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>438800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>404100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>365900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>334300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2815700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2759800</v>
+      </c>
+      <c r="F49" s="3">
         <v>2780400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2086000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2097800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2112400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2128900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2145600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1669300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1686000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1692500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1711800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1721200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>222400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>199300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>204800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>192700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>197700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>202100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>209200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3403,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>347000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>329600</v>
+      </c>
+      <c r="F52" s="3">
         <v>319000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>309700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>272500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>266300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>281300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>274100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>242000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>241500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>247700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>260900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>232200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>217700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>204800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>209800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>166700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>165300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>154300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>154700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>65300</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9440900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>9113800</v>
+      </c>
+      <c r="F54" s="3">
         <v>8624000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>8718400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>7845000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>7501500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>7227500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6816400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6155600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5992200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5824200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5520700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5000300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4765100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4927800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4947400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>4564700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3407100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>3308700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3268300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2922600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3663,418 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>53100</v>
+      </c>
+      <c r="F57" s="3">
         <v>48100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>75600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>54900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>57800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>35400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>57600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>35600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>32500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>35100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>29100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>28800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>32900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>30200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>21000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>35800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>39900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>28200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>26800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>28400</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1212200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1202000</v>
+      </c>
+      <c r="F58" s="3">
         <v>1191700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1103100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1091100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>37500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>266100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>244300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>241300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1233200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>235400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>232500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>229700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>226900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>570300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>341500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>336900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>332400</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U58" s="3">
-        <v>0</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3014900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3019000</v>
+      </c>
+      <c r="F59" s="3">
         <v>2970900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3104000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2479200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2457900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2469400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2667500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2214500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2168500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2172500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2169100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1797400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1654200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1596200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1696400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1376800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1304200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1261300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1258400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1069700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4275100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4274100</v>
+      </c>
+      <c r="F60" s="3">
         <v>4210800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4282600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3625200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2553100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2771000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2969400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2491400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3434300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2443100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2430700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2055900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1913900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2196700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2058900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1749500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1676600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1289400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1285200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1098100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>636000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>654600</v>
+      </c>
+      <c r="F61" s="3">
         <v>673300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>691900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>701200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1752000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1508800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1018000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1006400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>983500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>972300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>961100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>950100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>939200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1149800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1136500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>216000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>541400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>534400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>527500</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>314000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>317100</v>
+      </c>
+      <c r="F62" s="3">
         <v>334500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>466000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>440600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>357900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>345800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>342400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>338700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>347600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>352800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>159300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>150100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>125800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>134600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>158300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>138400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>144100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>157000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>172000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>159500</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5225100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5245900</v>
+      </c>
+      <c r="F66" s="3">
         <v>5218600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5440600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4767000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4663000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4625500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4329800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3836500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3781900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3779400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3562300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3167200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2989800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3270500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3367100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3024400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2036700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1987900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1991700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1785100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2671300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2714700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2820500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-2910000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2838300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2813900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2785900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2627400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2499400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2383700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2263000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-2146300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-2041800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1888000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1801800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-1727900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-1638800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-1553200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-1470700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-1406900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-1415000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4215800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3868000</v>
+      </c>
+      <c r="F76" s="3">
         <v>3405400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3277800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3078100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2838500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2602000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2486600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2319200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2210300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2044700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1958400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1833100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1775200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1657300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1580400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1540300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1370400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1320900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1276600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1137500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>105700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-46500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-71700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-24300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-28000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-158400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-128000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-115700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-120700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-116300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-104400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-153300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-86200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-74400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-89100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-85500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-82500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-64000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-88300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5216,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>87100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>85400</v>
+      </c>
+      <c r="F83" s="3">
         <v>82500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>75100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>73900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>73200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>71500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>75100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>72200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>67800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>61200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>59600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>57600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>42200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>38700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>34600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>35000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>34000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>33400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>32600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>384700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>198500</v>
+      </c>
+      <c r="F89" s="3">
         <v>452400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>553700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>293800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>157200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>263700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>297100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>258000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>100300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>209200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>250500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>114300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>57600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>184200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>126500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>144000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>15100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>180000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>109700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5718,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-87800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-69800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-3700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-21800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-34100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-39600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-55100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-37300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-49500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-39200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-44700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-27600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-23000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-60100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-107600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-174400</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5918,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-166900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-139300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-861700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-299000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-462700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-202600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-277300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-541400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>32600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-320700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-67400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-202400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1268100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>912300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-284600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-362000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-595500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>201300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-222900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>18400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-99100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6284,214 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>66300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-11000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>60800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-5900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>70800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>499300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>62200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>58000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>3400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>49400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-311400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>2600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>32500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1039300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>32200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>2200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>25400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
-      </c>
-      <c r="E101" s="3">
-        <v>800</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>800</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>800</v>
+      </c>
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>700</v>
-      </c>
-      <c r="T101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U101" s="3">
-        <v>0</v>
       </c>
       <c r="V101" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>210300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>125100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-420100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>316400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-174700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>26100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>485400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-182100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>292200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-162400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>144800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>97700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1151300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>658400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-98200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-202400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>587600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>249400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-40800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>153500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-22800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WDAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WDAY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42947</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42766</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1376100</v>
+      </c>
+      <c r="E8" s="3">
         <v>1327300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1260400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1175000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1131700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1106000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1062000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1018400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>976300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>938100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>887800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>825100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>788600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>743200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>671700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>618600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>582500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>555400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>525300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>479900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>439600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>413500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>389800</v>
+      </c>
+      <c r="E9" s="3">
         <v>359700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>345500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>333100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>313000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>295200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>284300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>305600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>284800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>270900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>266300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>243200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>233700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>223000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>200200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>178000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>171000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>163600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>158200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>136700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>130200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>126900</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>986300</v>
+      </c>
+      <c r="E10" s="3">
         <v>967600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>914900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>841900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>818700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>810800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>777700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>712800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>691500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>667200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>621500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>581900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>554900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>520200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>471500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>440600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>411500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>391800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>367100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>343200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>309400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>286600</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1004,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>537700</v>
+      </c>
+      <c r="E12" s="3">
         <v>455600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>444300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>441600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>439100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>420000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>418700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>443500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>422200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>401700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>378100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>347800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>337400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>318000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>292800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>263600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>253500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>239600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>221100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>196400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>191600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>185300</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1159,8 +1179,8 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1177,26 +1197,29 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3">
         <v>600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1477100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1303300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1261500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1213300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1205000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1120000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1078700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1162800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1122400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1048400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1010200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>948400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>908900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>925900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>760700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>689900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>664400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>635500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>606900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>540100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>528500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>519500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-101000</v>
+      </c>
+      <c r="E18" s="3">
         <v>24000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-38300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-73300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-14000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-16700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-144400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-146100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-110300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-122400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-123300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-120300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-182700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-89000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-71300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-81900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-80100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-81600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-60200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-88900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-106000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,149 +1481,156 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E20" s="3">
         <v>25700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>107100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>20300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>7500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>7800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>33300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>12100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>14300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>18700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>27200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>39000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>19100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>14500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>11900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>8600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>7800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>11600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E21" s="3">
         <v>136800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>191400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>39300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>22100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>67300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>64300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-66400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-37700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-25900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-40400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-43500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-33500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-86200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-27600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-18100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-35400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-36500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-39800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-21500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-44700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-64200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="E22" s="3">
         <v>4200</v>
@@ -1599,197 +1639,206 @@
         <v>4200</v>
       </c>
       <c r="G22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H22" s="3">
         <v>15600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>19300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>17500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>14500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>12000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>12300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>17500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>18300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>18400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>12300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>6800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>7000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>13900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-83800</v>
+      </c>
+      <c r="E23" s="3">
         <v>45500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>101900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-47400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-68600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-22900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-28200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-155400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-129200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-114400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-122600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-116200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-105100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-156100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-87400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-75100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-88400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-83800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-80700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-61900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-91200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-109000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E24" s="3">
         <v>2100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1900</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-3000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-73300</v>
+      </c>
+      <c r="E26" s="3">
         <v>43400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>105700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-46500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-71700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-24300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-28000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-158400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-128000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-115700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-120700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-116300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-104400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-153300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-86200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-74400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-99200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-85500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-82500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-64000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-88300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-73300</v>
+      </c>
+      <c r="E27" s="3">
         <v>43400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>105700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-46500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-71700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-24300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-28000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-158400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-128000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-115700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-120700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-116300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-104400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-153300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-86200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-74400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-99200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-85500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-82500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-64000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-88300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2092,17 +2153,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
@@ -2110,11 +2171,11 @@
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T29" s="3">
         <v>10100</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>10</v>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-25700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-107100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-20300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-7500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-7800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-33300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-12100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-14300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-18700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-27200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-39000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-19100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-14500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-11900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-8600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-7800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-11600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-73300</v>
+      </c>
+      <c r="E33" s="3">
         <v>43400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>105700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-46500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-71700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-24300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-28000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-158400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-128000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-115700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-120700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-116300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-104400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-153300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-86200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-74400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-89100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-85500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-82500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-64000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-88300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-73300</v>
+      </c>
+      <c r="E35" s="3">
         <v>43400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>105700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-46500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-71700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-24300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-28000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-158400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-128000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-115700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-120700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-116300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-104400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-153300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-86200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-74400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-89100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-85500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-82500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-64000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-88300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42947</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42766</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,212 +2747,222 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1534300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1297300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1087100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>959400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1384200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1067000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1239700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1214200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>731100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>912700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>619500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>781800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>638600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>540400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1693700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1036000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1134400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1337000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>748600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>498900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>539900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>386600</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2109900</v>
+      </c>
+      <c r="E42" s="3">
         <v>2257700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2220900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2035200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2151500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1880800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1513800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1384800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1213400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1191800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1307000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1110100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1139900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1041700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1291400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2329600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2133500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1874100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1349200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1616800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1456800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1527200</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1242500</v>
+      </c>
+      <c r="E43" s="3">
         <v>865000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>872800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>647200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1032500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>742700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>694300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>584200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>877600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>615500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>613400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>542800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>704700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>486000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>457500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>354200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>528200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>349300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>370600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>297900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>819600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>268900</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,348 +3029,366 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>327400</v>
+      </c>
+      <c r="E45" s="3">
         <v>273700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>280400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>264100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>233900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>267700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>266400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>267100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>272500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>235300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>249100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>230400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>217500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>203100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>171400</v>
-      </c>
-      <c r="R45" s="3">
-        <v>160900</v>
       </c>
       <c r="S45" s="3">
         <v>160900</v>
       </c>
       <c r="T45" s="3">
+        <v>160900</v>
+      </c>
+      <c r="U45" s="3">
         <v>133300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>117900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>120200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>117900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>111900</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5214100</v>
+      </c>
+      <c r="E46" s="3">
         <v>4693700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4461100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3905800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4802100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3958200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3714200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3450400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3094600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2955400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2789000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2665100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2700600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2271300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3614000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3880800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3957000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3693800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2586200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2533800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2524400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2294600</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>256800</v>
+      </c>
+      <c r="E47" s="3">
         <v>194600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>151900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>182200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>134100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>124300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>126500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>119600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>75000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>70800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>61300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>52900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>50500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>40200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>32400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>31600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>29200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>24300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>19200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>14500</v>
-      </c>
-      <c r="W47" s="3">
-        <v>14000</v>
       </c>
       <c r="X47" s="3">
         <v>14000</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1370900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1389900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1411300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1436600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1386500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1392200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1282100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1247300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1227100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1218200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1214300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1165900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>796900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>735400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>678500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>611300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>546600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>487200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>438800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>404100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>365900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>334300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3253800</v>
+      </c>
+      <c r="E49" s="3">
         <v>2815700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2759800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2780400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2086000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2097800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2112400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2128900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2145600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1669300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1686000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1692500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1711800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1721200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>222400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>199300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>204800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>192700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>197700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>202100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>209200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3526,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>403000</v>
+      </c>
+      <c r="E52" s="3">
         <v>347000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>329600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>319000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>309700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>272500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>266300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>281300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>274100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>242000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>241500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>247700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>260900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>232200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>217700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>204800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>209800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>166700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>165300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>154300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>154700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>65300</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10498500</v>
+      </c>
+      <c r="E54" s="3">
         <v>9440900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9113800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8624000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8718400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7845000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7501500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7227500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6816400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6155600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5992200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5824200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5520700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5000300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4765100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4927800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4947400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4564700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3407100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3308700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3268300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2922600</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3795,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E57" s="3">
         <v>47900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>53100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>48100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>75600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>54900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>57800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>35400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>57600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>35600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>32500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>35100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>29100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>28800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>32900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>30200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>21000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>35800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>39900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>28200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>26800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>28400</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1222400</v>
+      </c>
+      <c r="E58" s="3">
         <v>1212200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1202000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1191700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1103100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1091100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>37500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>266100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>244300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>241300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1233200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>235400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>232500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>229700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>226900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>570300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>341500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>336900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>332400</v>
       </c>
-      <c r="V58" s="3" t="s">
+      <c r="W58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
-      <c r="X58" s="3" t="s">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3789900</v>
+      </c>
+      <c r="E59" s="3">
         <v>3014900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3019000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2970900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3104000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2479200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2457900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2469400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2667500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2214500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2168500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2172500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2169100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1797400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1654200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1596200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1696400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1376800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1304200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1261300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1258400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1069700</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5067900</v>
+      </c>
+      <c r="E60" s="3">
         <v>4275100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4274100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4210800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4282600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3625200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2553100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2771000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2969400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2491400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3434300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2443100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2430700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2055900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1913900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2196700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2058900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1749500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1676600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1289400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1285200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1098100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>617400</v>
+      </c>
+      <c r="E61" s="3">
         <v>636000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>654600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>673300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>691900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>701200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1752000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1508800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1018000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1006400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>983500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>972300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>961100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>950100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>939200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1149800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1136500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>216000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>541400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>534400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>527500</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>278200</v>
+      </c>
+      <c r="E62" s="3">
         <v>314000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>317100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>334500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>466000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>440600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>357900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>345800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>342400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>338700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>347600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>352800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>159300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>150100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>125800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>134600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>158300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>138400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>144100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>157000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>172000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>159500</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5963400</v>
+      </c>
+      <c r="E66" s="3">
         <v>5225100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5245900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5218600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5440600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4767000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4663000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4625500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4329800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3836500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3781900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3779400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3562300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3167200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2989800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3270500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3367100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3024400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2036700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1987900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1991700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1785100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2744600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2671300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2714700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2820500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2910000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2838300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2813900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2785900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2627400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2499400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2383700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2263000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2146300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2041800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1888000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1801800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1727900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1638800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1553200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1470700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1406900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1415000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4535100</v>
+      </c>
+      <c r="E76" s="3">
         <v>4215800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3868000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3405400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3277800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3078100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2838500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2602000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2486600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2319200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2210300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2044700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1958400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1833100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1775200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1657300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1580400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1540300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1370400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1320900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1276600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1137500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42947</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42766</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-73300</v>
+      </c>
+      <c r="E81" s="3">
         <v>43400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>105700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-46500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-71700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-24300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-28000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-158400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-128000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-115700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-120700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-116300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-104400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-153300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-86200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-74400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-89100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-85500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-82500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-64000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-88300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5416,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>88800</v>
+      </c>
+      <c r="E83" s="3">
         <v>87100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>85400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>82500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>75100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>73900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>73200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>71500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>75100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>72200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>67800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>61200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>59600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>57600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>42200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>38700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>34600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>35000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>34000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>33400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>32600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>615100</v>
+      </c>
+      <c r="E89" s="3">
         <v>384700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>198500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>452400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>553700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>293800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>157200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>263700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>297100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>258000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>100300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>209200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>250500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>114300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>57600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>184200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>126500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>144000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>15100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>180000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>109700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-87800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-69800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-21800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-34100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-39600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-55100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-37300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-49500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-39200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-44700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-27600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-23000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-60100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-107600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-174400</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-439500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-166900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-139300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-861700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-299000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-462700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-202600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-277300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-541400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>32600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-320700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-67400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-202400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1268100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>912300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-284600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-362000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-595500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>201300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-222900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>18400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-99100</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6533,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>66300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>60800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>70800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>499300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>62200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>58000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>49400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-311400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>32500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1039300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>32200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>25400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-200</v>
       </c>
       <c r="Q101" s="3">
         <v>-200</v>
       </c>
       <c r="R101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S101" s="3">
         <v>-400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>237500</v>
+      </c>
+      <c r="E102" s="3">
         <v>210300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>125100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-420100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>316400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-174700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>26100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>485400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-182100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>292200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-162400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>144800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>97700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1151300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>658400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-98200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-202400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>587600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>249400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-40800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>153500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-22800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WDAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WDAY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,345 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43131</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43039</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42947</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42855</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42766</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1535800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1434700</v>
+      </c>
+      <c r="F8" s="3">
         <v>1376100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1327300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1260400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1175000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1131700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1106000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1062000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1018400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>976300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>938100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>887800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>825100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>788600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>743200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>671700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>618600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>582500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>555400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>525300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>479900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>439600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>413500</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>423100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>402800</v>
+      </c>
+      <c r="F9" s="3">
         <v>389800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>359700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>345500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>333100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>313000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>295200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>284300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>305600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>284800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>270900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>266300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>243200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>233700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>223000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>200200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>178000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>171000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>163600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>158200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>136700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>130200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>126900</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1112700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1031900</v>
+      </c>
+      <c r="F10" s="3">
         <v>986300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>967600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>914900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>841900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>818700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>810800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>777700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>712800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>691500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>667200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>621500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>581900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>554900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>520200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>471500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>440600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>411500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>391800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>367100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>343200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>309400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>286600</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,79 +1029,87 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>547800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>541500</v>
+      </c>
+      <c r="F12" s="3">
         <v>537700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>455600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>444300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>441600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>439100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>420000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>418700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>443500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>422200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>401700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>378100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>347800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>337400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>318000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>292800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>263600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>253500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>239600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>221100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>196400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>191600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>185300</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1147,8 +1179,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1182,11 +1220,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1200,26 +1238,32 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="3">
         <v>600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>100</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1333,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1363,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1569900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1507500</v>
+      </c>
+      <c r="F17" s="3">
         <v>1477100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1303300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1261500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1213300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1205000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1120000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1078700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1162800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1122400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1048400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1010200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>948400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>908900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>925900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>760700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>689900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>664400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>635500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>606900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>540100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>528500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>519500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-72800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-101000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>24000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-38300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-73300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-14000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-16700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-144400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-146100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-110300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-122400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-123300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-120300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-182700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-89000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-71300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-81900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-80100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-81600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-60200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-88900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-106000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,363 +1546,395 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F20" s="3">
         <v>21300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>25700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>107100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-4800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>20300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>7500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>7800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>6600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>33300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>12100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>14300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>18700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>27200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>39000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>19100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>14500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>11900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>8600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>7800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>5300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>11600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F21" s="3">
         <v>9000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>136800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>191400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>39300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>22100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>67300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>64300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-66400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-37700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-25900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-40400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-43500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-33500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-86200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-27600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-18100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-35400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-36500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-39800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-21500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-44700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-64200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F22" s="3">
         <v>4100</v>
-      </c>
-      <c r="E22" s="3">
-        <v>4200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4200</v>
       </c>
       <c r="G22" s="3">
         <v>4200</v>
       </c>
       <c r="H22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J22" s="3">
         <v>15600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>16400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>19300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>17500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>16400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>16200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>14500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>11600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>12000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>12300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>17500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>18300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>18400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>12300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>6800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>7000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>13900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-83800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>45500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>101900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-47400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-68600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-22900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-28200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-155400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-129200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-114400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-122600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-116200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-105100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-156100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-87400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-75100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-88400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-83800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-80700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-61900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-91200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-109000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-10600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>2100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-3900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>3100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-1300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-1900</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-2800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-1200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>10700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>1700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>1800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>2200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +2004,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-64200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-102200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-73300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>43400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>105700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-46500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-71700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-24300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-28000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-158400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-128000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-115700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-120700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-116300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-104400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-153300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-86200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-74400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-99200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-85500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-82500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-64000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-88300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-64200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-102200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-73300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>43400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>105700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-46500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-71700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-24300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-28000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-158400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-128000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-115700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-120700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-116300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-104400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-153300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-86200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-74400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-99200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-85500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-82500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-64000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-88300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2235,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2156,32 +2276,32 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>10</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="3">
-        <v>10100</v>
+      <c r="T29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>10</v>
+      <c r="V29" s="3">
+        <v>10100</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>10</v>
@@ -2192,8 +2312,14 @@
       <c r="Y29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2389,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2466,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-21300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-25700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-107100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>4800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-20300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-7500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-7800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-6600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-33300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-12100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-14300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-18700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-27200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-39000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-19100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-14500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-11900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-8600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-7800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-5300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-11600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-64200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-102200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-73300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>43400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>105700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-46500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-71700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-24300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-28000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-158400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-128000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-115700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-120700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-116300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-104400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-153300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-86200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-74400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-89100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-85500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-82500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-64000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-88300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2697,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-64200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-102200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-73300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>43400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>105700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-46500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-71700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-24300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-28000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-158400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-128000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-115700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-120700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-116300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-104400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-153300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-86200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-74400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-89100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-85500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-82500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-64000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-88300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43131</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43039</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42947</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42855</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42766</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2889,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,221 +2918,241 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2486500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2776300</v>
+      </c>
+      <c r="F41" s="3">
         <v>1534300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1297300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1087100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>959400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1384200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1067000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1239700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1214200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>731100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>912700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>619500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>781800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>638600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>540400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1693700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1036000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1134400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1337000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>748600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>498900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>539900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>386600</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3806400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3479000</v>
+      </c>
+      <c r="F42" s="3">
         <v>2109900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>2257700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>2220900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>2035200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>2151500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>1880800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1513800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1384800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1213400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1191800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1307000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1110100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1139900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>1041700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1291400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>2329600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>2133500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>1874100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>1349200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>1616800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>1456800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>1527200</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1105300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>778100</v>
+      </c>
+      <c r="F43" s="3">
         <v>1242500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>865000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>872800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>647200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1032500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>742700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>694300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>584200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>877600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>615500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>613400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>542800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>704700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>486000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>457500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>354200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>528200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>349300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>370600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>297900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>819600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>268900</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,363 +3222,399 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>406400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>409800</v>
+      </c>
+      <c r="F45" s="3">
         <v>327400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>273700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>280400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>264100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>233900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>267700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>266400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>267100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>272500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>235300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>249100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>230400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>217500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>203100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>171400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>160900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>160900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>133300</v>
-      </c>
-      <c r="V45" s="3">
-        <v>117900</v>
-      </c>
-      <c r="W45" s="3">
-        <v>120200</v>
       </c>
       <c r="X45" s="3">
         <v>117900</v>
       </c>
       <c r="Y45" s="3">
+        <v>120200</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>117900</v>
+      </c>
+      <c r="AA45" s="3">
         <v>111900</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7804700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>7443200</v>
+      </c>
+      <c r="F46" s="3">
         <v>5214100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4693700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4461100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3905800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4802100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3958200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3714200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3450400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3094600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2955400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2789000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2665100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2700600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2271300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3614000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>3880800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>3957000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>3693800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>2586200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>2533800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>2524400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>2294600</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>265600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>260600</v>
+      </c>
+      <c r="F47" s="3">
         <v>256800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>194600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>151900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>182200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>134100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>124300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>126500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>119600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>75000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>70800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>61300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>52900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>50500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>40200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>32400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>31600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>29200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>24300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>19200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>14500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>14000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1519400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1438200</v>
+      </c>
+      <c r="F48" s="3">
         <v>1370900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1389900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1411300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1436600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1386500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1392200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1282100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1247300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1227100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1218200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1214300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1165900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>796900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>735400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>678500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>611300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>546600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>487200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>438800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>404100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>365900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>334300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3209000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3231300</v>
+      </c>
+      <c r="F49" s="3">
         <v>3253800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2815700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2759800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2780400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2086000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2097800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2112400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2128900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2145600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1669300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1686000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1692500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1711800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1721200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>222400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>199300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>204800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>192700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>197700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>202100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>209200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3684,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3761,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>450900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>425700</v>
+      </c>
+      <c r="F52" s="3">
         <v>403000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>347000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>329600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>319000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>309700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>272500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>266300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>281300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>274100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>242000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>241500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>247700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>260900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>232200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>217700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>204800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>209800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>166700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>165300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>154300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>154700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>65300</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3915,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13249600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>12799100</v>
+      </c>
+      <c r="F54" s="3">
         <v>10498500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>9440900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>9113800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8624000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>8718400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>7845000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>7501500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7227500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>6816400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>6155600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5992200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5824200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5520700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5000300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>4765100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>4927800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>4947400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>4564700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3407100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>3308700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>3268300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>2922600</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +4025,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,434 +4054,472 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>60700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>123400</v>
+      </c>
+      <c r="F57" s="3">
         <v>55500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>47900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>53100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>48100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>75600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>54900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>57800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>35400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>57600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>35600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>32500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>35100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>29100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>28800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>32900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>30200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>21000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>35800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>39900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>28200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>26800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>28400</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1149000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1148100</v>
+      </c>
+      <c r="F58" s="3">
         <v>1222400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1212200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1202000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1191700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1103100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1091100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>37500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>266100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>244300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>241300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1233200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>235400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>232500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>229700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>226900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>570300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>341500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>336900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>332400</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X58" s="3">
-        <v>0</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3648200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3509900</v>
+      </c>
+      <c r="F59" s="3">
         <v>3789900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3014900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3019000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2970900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3104000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2479200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2457900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2469400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2667500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2214500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2168500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2172500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2169100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1797400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1654200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1596200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1696400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1376800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1304200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1261300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1258400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1069700</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4857900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4781400</v>
+      </c>
+      <c r="F60" s="3">
         <v>5067900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4275100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4274100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4210800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4282600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3625200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2553100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2771000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2969400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2491400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3434300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2443100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2430700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2055900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1913900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2196700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2058900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1749500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1676600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1289400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1285200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1098100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2974000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2973100</v>
+      </c>
+      <c r="F61" s="3">
         <v>617400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>636000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>654600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>673300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>691900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>701200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1752000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1508800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1018000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1006400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>983500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>972300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>961100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>950100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>939200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1149800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1136500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>216000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>541400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>534400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>527500</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>289900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>263800</v>
+      </c>
+      <c r="F62" s="3">
         <v>278200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>314000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>317100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>334500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>466000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>440600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>357900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>345800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>342400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>338700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>347600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>352800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>159300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>150100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>125800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>134600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>158300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>138400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>144100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>157000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>172000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>159500</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4589,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4666,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4743,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8121700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8018300</v>
+      </c>
+      <c r="F66" s="3">
         <v>5963400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5225100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5245900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5218600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5440600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4767000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4663000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4625500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4329800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3836500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3781900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3779400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3562300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3167200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2989800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3270500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3367100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3024400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2036700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1987900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1991700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1785100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4853,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4926,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +5003,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +5080,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +5157,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2910900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2846800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2744600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-2671300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2714700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2820500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2910000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2838300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2813900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2785900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2627400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-2499400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-2383700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-2263000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-2146300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-2041800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-1888000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-1801800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-1727900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-1638800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-1553200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-1470700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-1406900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-1415000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5311,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5388,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5465,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5127800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4780800</v>
+      </c>
+      <c r="F76" s="3">
         <v>4535100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4215800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3868000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3405400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3277800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3078100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2838500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2602000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2486600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2319200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2210300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2044700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1958400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1833100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1775200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1657300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1580400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1540300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1370400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1320900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1276600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1137500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5619,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43131</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43039</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42947</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42855</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42766</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-64200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-102200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-73300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>43400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>105700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-46500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-71700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-24300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-28000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-158400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-128000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-115700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-120700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-116300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-104400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-153300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-86200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-74400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-89100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-85500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-82500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-64000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-88300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,79 +5811,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>92700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>89800</v>
+      </c>
+      <c r="F83" s="3">
         <v>88800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>87100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>85400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>82500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>75100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>73900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>73200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>71500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>75100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>72200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>67800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>61200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>59600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>57600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>42200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>38700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>34600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>35000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>34000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>33400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>32600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5961,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +6038,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +6115,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +6192,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6269,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>114400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>439700</v>
+      </c>
+      <c r="F89" s="3">
         <v>615100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>384700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>198500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>452400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>553700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>293800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>157200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>263700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>297100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>258000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>100300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>209200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>250500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>114300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>57600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>184200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>126500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>144000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>15100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>180000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>109700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6379,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-13900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-87800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-69800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-2500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-3700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-21800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-34100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-39600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-55100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-37300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-49500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-39200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-44700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-27600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-23000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-60100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-107600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-174400</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6529,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6606,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-487000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1470700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-439500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-166900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-139300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-861700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-299000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-462700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-202600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-277300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-541400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>32600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-320700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-67400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-202400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1268100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>912300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-284600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-362000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-595500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>201300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-222900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>18400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-99100</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6716,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6789,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6866,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6943,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,217 +7020,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>83100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2277700</v>
+      </c>
+      <c r="F100" s="3">
         <v>62500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-7500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>66300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-11000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>60800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-5900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>70800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>499300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>62200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>58000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>3400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>49400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>2700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-311400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>2600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>32500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>1039300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>32200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>2200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>25400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
-      </c>
-      <c r="H101" s="3">
-        <v>800</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>800</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>800</v>
+      </c>
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>700</v>
-      </c>
-      <c r="W101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X101" s="3">
-        <v>0</v>
       </c>
       <c r="Y101" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-289700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1246000</v>
+      </c>
+      <c r="F102" s="3">
         <v>237500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>210300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>125100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-420100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>316400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-174700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>26100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>485400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-182100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>292200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-162400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>144800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>97700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1151300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>658400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-98200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-202400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>587600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>249400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-40800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>153500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-22800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WDAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WDAY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,345 +665,369 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42947</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42766</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1646300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1599100</v>
+      </c>
+      <c r="F8" s="3">
         <v>1535800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1434700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1376100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1327300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1260400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1175000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1131700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1106000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1062000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1018400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>976300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>938100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>887800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>825100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>788600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>743200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>671700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>618600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>582500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>555400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>525300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>479900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>439600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>413500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>453500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>435800</v>
+      </c>
+      <c r="F9" s="3">
         <v>423100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>402800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>389800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>359700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>345500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>333100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>313000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>295200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>284300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>305600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>284800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>270900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>266300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>243200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>233700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>223000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>200200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>178000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>171000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>163600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>158200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>136700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>130200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>126900</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1192800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1163300</v>
+      </c>
+      <c r="F10" s="3">
         <v>1112700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1031900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>986300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>967600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>914900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>841900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>818700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>810800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>777700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>712800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>691500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>667200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>621500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>581900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>554900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>520200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>471500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>440600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>411500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>391800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>367100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>343200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>309400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>286600</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1031,85 +1055,93 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>615600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>565700</v>
+      </c>
+      <c r="F12" s="3">
         <v>547800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>541500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>537700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>455600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>444300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>441600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>439100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>420000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>418700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>443500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>422200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>401700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>378100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>347800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>337400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>318000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>292800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>263600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>253500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>239600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>221100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>196400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>191600</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>185300</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1185,8 +1217,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,11 +1264,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
@@ -1244,26 +1282,32 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X14" s="3">
         <v>600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>100</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1339,8 +1383,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1365,162 +1415,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1735200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1625400</v>
+      </c>
+      <c r="F17" s="3">
         <v>1569900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1507500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1477100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1303300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1261500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1213300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1205000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1120000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1078700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1162800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1122400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1048400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1010200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>948400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>908900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>925900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>760700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>689900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>664400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>635500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>606900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>540100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>528500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>519500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-88900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-34100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-72800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-101000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>24000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-38300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-73300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-14000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-16700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-144400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-146100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-110300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-122400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-123300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-120300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-182700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-89000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-71300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-81900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-80100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-81600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-60200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-88900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-106000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1548,393 +1612,425 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>33800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-6200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>21300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>25700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>107100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-4800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>20300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>7500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>7800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>6600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>33300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>12100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>14300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>18700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>27200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>39000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>19100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>14500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>11900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>8600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>7800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>5300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>11600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>99300</v>
+      </c>
+      <c r="F21" s="3">
         <v>56000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>10900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>9000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>136800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>191400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>39300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>22100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>67300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>64300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-66400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-37700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-25900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-40400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-43500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-33500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-86200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-27600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-18100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-35400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-36500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-39800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-21500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-44700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-64200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>29600</v>
+      </c>
+      <c r="F22" s="3">
         <v>30200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>14000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>4100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>4200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>4200</v>
       </c>
       <c r="I22" s="3">
         <v>4200</v>
       </c>
       <c r="J22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="L22" s="3">
         <v>15600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>16400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>19300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>17500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>16400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>16200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>14500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>11600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>12000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>12300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>17500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>18300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>18400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>12300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>6800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>7000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>13900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-77900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-66900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-93000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-83800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>45500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>101900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-47400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-68600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-22900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-28200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-155400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-129200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-114400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-122600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-116200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-105100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-156100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-87400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-75100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-88400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-83800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-80700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-61900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-91200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-109000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>52600</v>
+      </c>
+      <c r="F24" s="3">
         <v>-2700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>9200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-10600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>2100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-3900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>3100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-1300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-2800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-1200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>10700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>1700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>1800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>2200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2010,162 +2106,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-125700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-74700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-64200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-102200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-73300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>43400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>105700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-46500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-71700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-24300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-28000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-158400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-128000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-115700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-120700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-116300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-104400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-153300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-86200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-74400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-99200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-85500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-82500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-64000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-88300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-125700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-74700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-64200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-102200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-73300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>43400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>105700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-46500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-71700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-24300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-28000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-158400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-128000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-115700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-120700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-116300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-104400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-153300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-86200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-74400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-99200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-85500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-82500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-64000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-88300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2241,8 +2355,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2282,32 +2402,32 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>10</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V29" s="3">
-        <v>10100</v>
+      <c r="V29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>10</v>
+      <c r="X29" s="3">
+        <v>10100</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>10</v>
@@ -2318,8 +2438,14 @@
       <c r="AA29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2395,8 +2521,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2472,162 +2604,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-39500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="F32" s="3">
         <v>2600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>6200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-21300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-25700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-107100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>4800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-20300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-7500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-7800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-6600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-33300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-12100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-18700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-27200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-39000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-19100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-14500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-11900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-8600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-11600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-125700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-74700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-64200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-102200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-73300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>43400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>105700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-46500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-71700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-24300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-28000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-158400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-128000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-115700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-120700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-116300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-104400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-153300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-86200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-74400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-89100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-85500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-82500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-64000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-88300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2703,167 +2853,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-125700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-74700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-64200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-102200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-73300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>43400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>105700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-46500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-71700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-24300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-28000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-158400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-128000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-115700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-120700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-116300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-104400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-153300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-86200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-74400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-89100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-85500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-82500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-64000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-88300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42947</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42766</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2891,8 +3059,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2920,239 +3090,259 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1886300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1576000</v>
+      </c>
+      <c r="F41" s="3">
         <v>2486500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2776300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1534300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1297300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1087100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>959400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1384200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1067000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1239700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1214200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>731100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>912700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>619500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>781800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>638600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>540400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1693700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1036000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1134400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1337000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>748600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>498900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>539900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>386600</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4235100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3916100</v>
+      </c>
+      <c r="F42" s="3">
         <v>3806400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>3479000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>2109900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>2257700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>2220900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>2035200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>2151500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1880800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1513800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1384800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1213400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1191800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1307000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>1110100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1139900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>1041700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>1291400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>2329600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>2133500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>1874100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>1349200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>1616800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>1456800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>1527200</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1570100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1040500</v>
+      </c>
+      <c r="F43" s="3">
         <v>1105300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>778100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1242500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>865000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>872800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>647200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1032500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>742700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>694300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>584200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>877600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>615500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>613400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>542800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>704700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>486000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>457500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>354200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>528200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>349300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>370600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>297900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>819600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>268900</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3228,393 +3418,429 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>416700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>437700</v>
+      </c>
+      <c r="F45" s="3">
         <v>406400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>409800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>327400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>273700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>280400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>264100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>233900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>267700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>266400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>267100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>272500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>235300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>249100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>230400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>217500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>203100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>171400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>160900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>160900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>133300</v>
-      </c>
-      <c r="X45" s="3">
-        <v>117900</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>120200</v>
       </c>
       <c r="Z45" s="3">
         <v>117900</v>
       </c>
       <c r="AA45" s="3">
+        <v>120200</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>117900</v>
+      </c>
+      <c r="AC45" s="3">
         <v>111900</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8108200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6970300</v>
+      </c>
+      <c r="F46" s="3">
         <v>7804700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>7443200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>5214100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4693700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4461100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3905800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4802100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3958200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3714200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3450400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3094600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2955400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2789000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2665100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2700600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2271300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>3614000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>3880800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>3957000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>3693800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>2586200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>2533800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>2524400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>2294600</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>263500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>268500</v>
+      </c>
+      <c r="F47" s="3">
         <v>265600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>260600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>256800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>194600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>151900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>182200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>134100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>124300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>126500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>119600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>75000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>70800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>61300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>52900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>50500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>40200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>32400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>31600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>29200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>24300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>19200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>14500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>14000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1450500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1487200</v>
+      </c>
+      <c r="F48" s="3">
         <v>1519400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1438200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1370900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1389900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1411300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1436600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1386500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1392200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1282100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1247300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1227100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1218200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1214300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1165900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>796900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>735400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>678500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>611300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>546600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>487200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>438800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>404100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>365900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>334300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3166000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3187600</v>
+      </c>
+      <c r="F49" s="3">
         <v>3209000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>3231300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3253800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2815700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2759800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2780400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2086000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2097800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2112400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2128900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2145600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1669300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1686000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1692500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1711800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1721200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>222400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>199300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>204800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>192700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>197700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>202100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>209200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3690,8 +3916,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3767,85 +3999,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>498000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>476100</v>
+      </c>
+      <c r="F52" s="3">
         <v>450900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>425700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>403000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>347000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>329600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>319000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>309700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>272500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>266300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>281300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>274100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>242000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>241500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>247700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>260900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>232200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>217700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>204800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>209800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>166700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>165300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>154300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>154700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>65300</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3921,85 +4165,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13486200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>12389800</v>
+      </c>
+      <c r="F54" s="3">
         <v>13249600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>12799100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>10498500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>9440900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>9113800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>8624000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>8718400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7845000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7501500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7227500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>6816400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6155600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5992200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5824200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5520700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>5000300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>4765100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>4927800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>4947400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>4564700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>3407100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>3308700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>3268300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>2922600</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4027,8 +4283,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4056,470 +4314,508 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>153800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>75800</v>
+      </c>
+      <c r="F57" s="3">
         <v>60700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>123400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>55500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>47900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>53100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>48100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>75600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>54900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>57800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>35400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>57600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>35600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>32500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>35100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>29100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>28800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>32900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>30200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>21000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>35800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>39900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>28200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>26800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>28400</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>1149000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1148100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1222400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1212200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1202000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1191700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1103100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1091100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>37500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>266100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>244300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>241300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1233200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>235400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>232500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>229700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>226900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>570300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>341500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>336900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>332400</v>
-      </c>
-      <c r="Y58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>0</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4474400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3647600</v>
+      </c>
+      <c r="F59" s="3">
         <v>3648200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3509900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3789900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3014900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3019000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2970900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3104000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2479200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2457900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2469400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2667500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2214500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2168500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2172500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2169100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1797400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1654200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1596200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1696400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1376800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1304200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1261300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>1258400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>1069700</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4628200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3723400</v>
+      </c>
+      <c r="F60" s="3">
         <v>4857900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4781400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5067900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4275100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4274100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4210800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4282600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3625200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2553100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2771000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2969400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2491400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3434300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2443100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2430700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2055900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1913900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2196700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2058900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1749500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1676600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1289400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>1285200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>1098100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2975900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2975000</v>
+      </c>
+      <c r="F61" s="3">
         <v>2974000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2973100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>617400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>636000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>654600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>673300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>691900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>701200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1752000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1508800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1018000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1006400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>983500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>972300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>961100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>950100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>939200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>1149800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>1136500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>216000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>541400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>534400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>527500</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>296600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>282300</v>
+      </c>
+      <c r="F62" s="3">
         <v>289900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>263800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>278200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>314000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>317100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>334500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>466000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>440600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>357900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>345800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>342400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>338700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>347600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>352800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>159300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>150100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>125800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>134600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>158300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>138400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>144100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>157000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>172000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>159500</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4595,8 +4891,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4672,8 +4974,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4749,85 +5057,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7900700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6980700</v>
+      </c>
+      <c r="F66" s="3">
         <v>8121700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8018300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5963400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5225100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5245900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5218600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5440600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4767000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4663000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4625500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4329800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3836500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3781900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3779400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3562300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3167200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2989800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3270500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3367100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>3024400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2036700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1987900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1991700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1785100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4855,8 +5175,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4932,8 +5254,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5009,8 +5337,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5086,8 +5420,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5163,85 +5503,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3111300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2985600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2910900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-2846800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2744600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2671300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2714700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2820500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2910000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2838300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2813900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-2785900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-2627400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-2499400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-2383700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-2263000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-2146300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-2041800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-1888000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-1801800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-1727900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-1638800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-1553200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-1470700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-1406900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-1415000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5317,8 +5669,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5394,8 +5752,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5471,85 +5835,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5585600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5409100</v>
+      </c>
+      <c r="F76" s="3">
         <v>5127800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4780800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4535100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4215800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3868000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3405400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3277800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3078100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2838500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2602000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2486600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2319200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2210300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2044700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1958400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1833100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1775200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1657300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1580400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1540300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1370400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1320900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>1276600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>1137500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5625,167 +6001,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42947</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42766</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-125700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-74700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-64200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-102200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-73300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>43400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>105700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-46500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-71700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-24300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-28000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-158400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-128000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-115700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-120700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-116300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-104400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-153300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-86200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-74400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-89100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-85500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-82500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-64000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-88300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5813,85 +6207,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>91900</v>
+      </c>
+      <c r="F83" s="3">
         <v>92700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>89800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>88800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>87100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>85400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>82500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>75100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>73900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>73200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>71500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>75100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>72200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>67800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>61200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>59600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>57600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>42200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>38700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>34600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>35000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>34000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>33400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>32600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5967,8 +6369,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6044,8 +6452,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6121,8 +6535,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6198,8 +6618,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6275,85 +6701,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>694500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>408700</v>
+      </c>
+      <c r="F89" s="3">
         <v>114400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>439700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>615100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>384700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>198500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>452400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>553700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>293800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>157200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>263700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>297100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>258000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>100300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>209200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>250500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>114300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>57600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>184200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>126500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>144000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>15100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>180000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>109700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6381,85 +6819,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-13900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-87800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-69800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-3700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-21800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-34100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-39600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-55100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-37300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-49500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-39200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-44700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-27600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-23000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-60100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-107600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-174400</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6535,8 +6981,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6612,85 +7064,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-380100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-168100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-487000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1470700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-439500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-166900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-139300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-861700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-299000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-462700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-202600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-277300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-541400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>32600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-320700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-67400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-202400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-1268100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>912300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-284600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-362000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-595500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>201300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-222900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>18400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-99100</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6718,8 +7182,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6795,8 +7261,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6872,8 +7344,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6949,8 +7427,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7026,235 +7510,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1149100</v>
+      </c>
+      <c r="F100" s="3">
         <v>83100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2277700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>62500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-7500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>66300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-11000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>60800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-5900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>70800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>499300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>62200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>58000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>3400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>49400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>2700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-311400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>2600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>32500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>1039300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>32200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>2200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>25400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>800</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
       </c>
       <c r="L101" s="3">
         <v>800</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>800</v>
+      </c>
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>700</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Z101" s="3">
-        <v>0</v>
       </c>
       <c r="AA101" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>307600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-909400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-289700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1246000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>237500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>210300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>125100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-420100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>316400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-174700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>26100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>485400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-182100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>292200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-162400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>144800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>97700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1151300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>658400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-98200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-202400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>587600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>249400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-40800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>153500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-22800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WDAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WDAY_QTR_FIN.xlsx
@@ -6827,25 +6827,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3800</v>
+        <v>-77300</v>
       </c>
       <c r="E91" s="3">
-        <v>-200</v>
+        <v>-59500</v>
       </c>
       <c r="F91" s="3">
-        <v>-200</v>
+        <v>-168800</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-58800</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-81400</v>
       </c>
       <c r="I91" s="3">
-        <v>-13900</v>
+        <v>-33300</v>
       </c>
       <c r="J91" s="3">
-        <v>-87800</v>
+        <v>-87900</v>
       </c>
       <c r="K91" s="3">
         <v>-69800</v>

--- a/AAII_Financials/Quarterly/WDAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WDAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>WDAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,369 +665,393 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43312</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43220</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43131</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43039</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42947</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42855</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42766</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1786800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1684300</v>
+      </c>
+      <c r="F8" s="3">
         <v>1646300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1599100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1535800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1434700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1376100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1327300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1260400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1175000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1131700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1106000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1062000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1018400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>976300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>938100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>887800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>825100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>788600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>743200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>671700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>618600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>582500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>555400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>525300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>479900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>439600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>413500</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>448100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>417400</v>
+      </c>
+      <c r="F9" s="3">
         <v>453500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>435800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>423100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>402800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>389800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>359700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>345500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>333100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>313000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>295200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>284300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>305600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>284800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>270900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>266300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>243200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>233700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>223000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>200200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>178000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>171000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>163600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>158200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>136700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>130200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>126900</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1338700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1266900</v>
+      </c>
+      <c r="F10" s="3">
         <v>1192800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1163300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1112700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1031900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>986300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>967600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>914900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>841900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>818700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>810800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>777700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>712800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>691500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>667200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>621500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>581900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>554900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>520200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>471500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>440600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>411500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>391800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>367100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>343200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>309400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>286600</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1057,91 +1081,99 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>609700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>600500</v>
+      </c>
+      <c r="F12" s="3">
         <v>615600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>565700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>547800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>541500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>537700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>455600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>444300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>441600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>439100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>420000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>418700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>443500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>422200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>401700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>378100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>347800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>337400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>318000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>292800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>263600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>253500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>239600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>221100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>196400</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>191600</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AE12" s="3">
         <v>185300</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1223,8 +1255,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1270,11 +1308,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1288,26 +1326,32 @@
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="3">
         <v>600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>100</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1389,8 +1433,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1417,174 +1467,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1750500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1704100</v>
+      </c>
+      <c r="F17" s="3">
         <v>1735200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1625400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1569900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1507500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1477100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1303300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1261500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1213300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1205000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1120000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1078700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1162800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1122400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1048400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1010200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>948400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>908900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>925900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>760700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>689900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>664400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>635500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>606900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>540100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>528500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>519500</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-88900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-26300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-34100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-72800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-101000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>24000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-38300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-73300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-14000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-16700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-144400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-146100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-110300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-122400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-123300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-120300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-182700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-89000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-71300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-81900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-80100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-81600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-60200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-88900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>-106000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1614,174 +1678,188 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>74100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>55300</v>
+      </c>
+      <c r="F20" s="3">
         <v>39500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>33800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-2600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-6200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>21300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>25700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>107100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-4800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>20300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>7500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>7800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>6600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>33300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>12100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>14300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>18700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>27200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>39000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>19100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>14500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>11900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>8600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>7800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>5300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>11600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>181800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>105900</v>
+      </c>
+      <c r="F21" s="3">
         <v>40600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>99300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>56000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>10900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>9000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>136800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>191400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>39300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>22100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>67300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>64300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-66400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-37700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-25900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-40400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-43500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-33500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-86200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-27600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-18100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-35400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-36500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-39800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-21500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-44700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>-64200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1789,248 +1867,266 @@
         <v>28500</v>
       </c>
       <c r="E22" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F22" s="3">
+        <v>28500</v>
+      </c>
+      <c r="G22" s="3">
         <v>29600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>30200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>14000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>4100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>4200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>4200</v>
       </c>
       <c r="K22" s="3">
         <v>4200</v>
       </c>
       <c r="L22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N22" s="3">
         <v>15600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>16400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>19300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>17500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>16400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>16200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>14500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>11600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>12000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>12300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>17500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>18300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>18400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>12300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>6800</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>7000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>13900</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>81800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-77900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-22200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-66900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-93000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-83800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>45500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>101900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-47400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-68600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-22900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-28200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-155400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-129200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-114400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-122600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-116200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-105100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-156100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-87400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-75100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-88400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-83800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-80700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-61900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-91200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-109000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F24" s="3">
         <v>47800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>52600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-2700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>9200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-10600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-3900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>3100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>2900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-1900</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-2800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-1200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>10700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>1700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>1800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>2200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>-3000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2112,174 +2208,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-125700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-74700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-64200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-102200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-73300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>43400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>105700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-46500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-71700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-24300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-28000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-158400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-128000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-115700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-120700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-116300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-104400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-153300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-86200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-74400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-99200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-85500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-82500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-64000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-88300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-125700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-74700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-64200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-102200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-73300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>43400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>105700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-46500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-71700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-24300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-28000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-158400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-128000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-115700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-120700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-116300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-104400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-153300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-86200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-74400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-99200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-85500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-82500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-64000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-88300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2361,8 +2475,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2408,32 +2528,32 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>10</v>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X29" s="3">
-        <v>10100</v>
+      <c r="X29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>10</v>
+      <c r="Z29" s="3">
+        <v>10100</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>10</v>
@@ -2444,8 +2564,14 @@
       <c r="AC29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2527,8 +2653,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2610,174 +2742,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-74100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-55300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-39500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-33800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>2600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>6200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-21300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-25700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-107100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>4800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-20300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-7500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-7800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-6600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-33300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-12100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-14300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-18700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-27200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-39000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-19100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-14500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-11900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-8600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-7800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-5300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-11600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-125700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-74700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-64200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-102200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-73300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>43400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>105700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-46500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-71700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-24300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-28000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-158400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-128000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-115700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-120700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-116300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-104400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-153300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-86200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-74400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-89100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-85500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-82500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-64000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-88300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2859,179 +3009,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-125700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-74700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-64200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-102200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-73300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>43400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>105700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-46500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-71700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-24300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-28000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-158400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-128000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-115700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-120700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-116300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-104400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-153300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-86200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-74400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-89100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-85500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-82500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-64000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-88300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43312</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43220</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43131</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43039</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42947</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42855</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42766</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3061,8 +3229,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3092,257 +3262,277 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1435700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1443700</v>
+      </c>
+      <c r="F41" s="3">
         <v>1886300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1576000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2486500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2776300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1534300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1297300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1087100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>959400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1384200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1067000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1239700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1214200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>731100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>912700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>619500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>781800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>638600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>540400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1693700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1036000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1134400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>1337000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>748600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>498900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>539900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>386600</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5221400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>4885300</v>
+      </c>
+      <c r="F42" s="3">
         <v>4235100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>3916100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>3806400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>3479000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>2109900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>2257700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>2220900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>2035200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>2151500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1880800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1513800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1384800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1213400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>1191800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1307000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>1110100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>1139900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>1041700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>1291400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>2329600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>2133500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>1874100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>1349200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>1616800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>1456800</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>1527200</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1270900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1089300</v>
+      </c>
+      <c r="F43" s="3">
         <v>1570100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1040500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1105300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>778100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1242500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>865000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>872800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>647200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1032500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>742700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>694300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>584200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>877600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>615500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>613400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>542800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>704700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>486000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>457500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>354200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>528200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>349300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>370600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>297900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>819600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>268900</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3424,423 +3614,459 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>453700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>454800</v>
+      </c>
+      <c r="F45" s="3">
         <v>416700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>437700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>406400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>409800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>327400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>273700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>280400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>264100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>233900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>267700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>266400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>267100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>272500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>235300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>249100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>230400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>217500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>203100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>171400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>160900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>160900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>133300</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>117900</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>120200</v>
       </c>
       <c r="AB45" s="3">
         <v>117900</v>
       </c>
       <c r="AC45" s="3">
+        <v>120200</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>117900</v>
+      </c>
+      <c r="AE45" s="3">
         <v>111900</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8381700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>7873100</v>
+      </c>
+      <c r="F46" s="3">
         <v>8108200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>6970300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>7804700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>7443200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>5214100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4693700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4461100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3905800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4802100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3958200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3714200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3450400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3094600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2955400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2789000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2665100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2700600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2271300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>3614000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>3880800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>3957000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>3693800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>2586200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>2533800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>2524400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>2294600</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>261500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>271100</v>
+      </c>
+      <c r="F47" s="3">
         <v>263500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>268500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>265600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>260600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>256800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>194600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>151900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>182200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>134100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>124300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>126500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>119600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>75000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>70800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>61300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>52900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>50500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>40200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>32400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>31600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>29200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>24300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>19200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>14500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>14000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1484000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1472800</v>
+      </c>
+      <c r="F48" s="3">
         <v>1450500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1487200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1519400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1438200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1370900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1389900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1411300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1436600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1386500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1392200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1282100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1247300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1227100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1218200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1214300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1165900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>796900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>735400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>678500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>611300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>546600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>487200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>438800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>404100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>365900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>334300</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3130600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3152900</v>
+      </c>
+      <c r="F49" s="3">
         <v>3166000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>3187600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3209000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3231300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>3253800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2815700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2759800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2780400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2086000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2097800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2112400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2128900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2145600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1669300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1686000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1692500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1711800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1721200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>222400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>199300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>204800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>192700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>197700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>202100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>209200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3922,8 +4148,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4005,91 +4237,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>477500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>482900</v>
+      </c>
+      <c r="F52" s="3">
         <v>498000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>476100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>450900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>425700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>403000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>347000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>329600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>319000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>309700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>272500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>266300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>281300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>274100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>242000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>241500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>247700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>260900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>232200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>217700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>204800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>209800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>166700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>165300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>154300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>154700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>65300</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4171,91 +4415,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13735300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>13252800</v>
+      </c>
+      <c r="F54" s="3">
         <v>13486200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>12389800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>13249600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>12799100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>10498500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>9440900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>9113800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>8624000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8718400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7845000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7501500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>7227500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>6816400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>6155600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5992200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>5824200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>5520700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>5000300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>4765100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>4927800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>4947400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>4564700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>3407100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>3308700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>3268300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>2922600</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4285,8 +4541,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4316,506 +4574,544 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>88800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>113300</v>
+      </c>
+      <c r="F57" s="3">
         <v>153800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>75800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>60700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>123400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>55500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>47900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>53100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>48100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>75600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>54900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>57800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>35400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>57600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>35600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>32500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>35100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>29100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>28800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>32900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>30200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>21000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>35800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>39900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>28200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>26800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>28400</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>1149000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1148100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1222400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1212200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1202000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1191700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1103100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1091100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>37500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>266100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>244300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>241300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1233200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>235400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>232500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>229700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>226900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>570300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>341500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>336900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>332400</v>
-      </c>
-      <c r="AA58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>0</v>
       </c>
       <c r="AC58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4093100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3930800</v>
+      </c>
+      <c r="F59" s="3">
         <v>4474400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3647600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3648200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3509900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3789900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3014900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3019000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2970900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3104000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2479200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2457900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2469400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2667500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2214500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2168500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2172500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2169100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1797400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1654200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1596200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1696400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1376800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>1304200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>1261300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>1258400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>1069700</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4182000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4044100</v>
+      </c>
+      <c r="F60" s="3">
         <v>4628200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3723400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4857900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4781400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5067900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4275100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4274100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4210800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4282600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3625200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2553100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2771000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2969400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2491400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3434300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2443100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2430700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2055900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1913900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2196700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>2058900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1749500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>1676600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>1289400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>1285200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>1098100</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2977800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2976900</v>
+      </c>
+      <c r="F61" s="3">
         <v>2975900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2975000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2974000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2973100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>617400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>636000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>654600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>673300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>691900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>701200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1752000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1508800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1018000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1006400</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>983500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>972300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>961100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>950100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>939200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>1149800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>1136500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>216000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>541400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>534400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>527500</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>301000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>290000</v>
+      </c>
+      <c r="F62" s="3">
         <v>296600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>282300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>289900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>263800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>278200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>314000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>317100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>334500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>466000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>440600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>357900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>345800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>342400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>338700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>347600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>352800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>159300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>150100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>125800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>134600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>158300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>138400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>144100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>157000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>172000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>159500</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4897,8 +5193,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4980,8 +5282,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5063,91 +5371,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7460800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7310900</v>
+      </c>
+      <c r="F66" s="3">
         <v>7900700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6980700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8121700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8018300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5963400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5225100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5245900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5218600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5440600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4767000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4663000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4625500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4329800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3836500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3781900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3779400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3562300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3167200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2989800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>3270500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>3367100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>3024400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>2036700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1987900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>1991700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>1785100</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5177,8 +5497,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5260,8 +5582,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5343,8 +5671,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5426,8 +5760,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5509,91 +5849,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3032500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3111200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-3111300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-2985600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2910900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2846800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2744600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2671300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2714700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2820500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2910000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-2838300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-2813900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-2785900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-2627400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-2499400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-2383700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-2263000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-2146300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-2041800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-1888000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-1801800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-1727900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-1638800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-1553200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-1470700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-1406900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-1415000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5675,8 +6027,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5758,8 +6116,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5841,91 +6205,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6274600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5941900</v>
+      </c>
+      <c r="F76" s="3">
         <v>5585600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>5409100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>5127800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4780800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>4535100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4215800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3868000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3405400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3277800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3078100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2838500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2602000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2486600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2319200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2210300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2044700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1958400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1833100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1775200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1657300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1580400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1540300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>1370400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>1320900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>1276600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>1137500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6007,179 +6383,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43312</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43220</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43131</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43039</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42947</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42855</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42766</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-125700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-74700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-64200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-102200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-73300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>43400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>105700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-46500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-71700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-24300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-28000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-158400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-128000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-115700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-120700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-116300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-104400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-153300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-86200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-74400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-89100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-85500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-82500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-64000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-88300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6209,91 +6603,99 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>71400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>70400</v>
+      </c>
+      <c r="F83" s="3">
         <v>90000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>91900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>92700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>89800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>88800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>87100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>85400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>82500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>75100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>73900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>73200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>71500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>75100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>72200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>67800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>61200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>59600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>57600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>42200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>38700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>34600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>35000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>34000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>33400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>32600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6375,8 +6777,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6458,8 +6866,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6541,8 +6955,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6624,8 +7044,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6707,91 +7133,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>425300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>277300</v>
+      </c>
+      <c r="F89" s="3">
         <v>694500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>408700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>114400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>439700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>615100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>384700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>198500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>452400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>553700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>293800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>157200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>263700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>297100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>258000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>100300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>209200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>250500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>114300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>57600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>184200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>126500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>144000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>15100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>180000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>109700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6821,91 +7259,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-65100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-68600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-77300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-59500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-168800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-58800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-81400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-33300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-87900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-69800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-2500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-21800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-34100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-39600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-55100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-37300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-49500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-39200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-44700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-27600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-23000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-60100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-107600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-174400</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6987,8 +7433,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7070,91 +7522,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-385300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-713000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-380100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-168100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-487000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1470700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-439500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-166900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-139300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-861700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-299000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-462700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-202600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-277300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-541400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>32600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-320700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-67400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-202400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1268100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>912300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-284600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-362000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-595500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>201300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-222900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>18400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-99100</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7184,8 +7648,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7267,8 +7733,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7350,8 +7822,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7433,8 +7911,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7516,253 +8000,277 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-7900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1149100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>83100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>2277700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>62500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-7500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>66300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-11000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>60800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-5900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>70800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>499300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>62200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>1600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>58000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>3400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>49400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>2700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-311400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>2600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>32500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>1039300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>32200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>2200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>25400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
         <v>1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
-      </c>
-      <c r="L101" s="3">
-        <v>800</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
       </c>
       <c r="N101" s="3">
         <v>800</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>700</v>
-      </c>
-      <c r="AA101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AB101" s="3">
-        <v>0</v>
       </c>
       <c r="AC101" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-438900</v>
+      </c>
+      <c r="F102" s="3">
         <v>307600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-909400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-289700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1246000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>237500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>210300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>125100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-420100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>316400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-174700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>26100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>485400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-182100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>292200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-162400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>144800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>97700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-1151300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>658400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-98200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-202400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>587600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>249400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-40800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>153500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-22800</v>
       </c>
     </row>
